--- a/birdeye/tools/old.xlsx
+++ b/birdeye/tools/old.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="30240" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="258">
   <si>
     <t>登记时间</t>
   </si>
@@ -557,6 +557,252 @@
   </si>
   <si>
     <t>Cy7rUZ5rK2ukitsAVVfK5Kn8t35TR417RRuURPWoRBAF</t>
+  </si>
+  <si>
+    <t>MVG</t>
+  </si>
+  <si>
+    <t>qRUZaCpgxaRH1s5V6opjPA6Hnpv5BM37LqkDBw7pump</t>
+  </si>
+  <si>
+    <t>SIGN</t>
+  </si>
+  <si>
+    <t>BSC/BASE</t>
+  </si>
+  <si>
+    <t>0x868FCEd65edBF0056c4163515dD840e9f287A4c3</t>
+  </si>
+  <si>
+    <t>Grassito</t>
+  </si>
+  <si>
+    <t>GkeUTuaFB4oZADaqiCo3yauHNx9SxUNn8euHptEEbonk</t>
+  </si>
+  <si>
+    <t>neet</t>
+  </si>
+  <si>
+    <t>Ce2gx9KGXJ6C9Mp5b5x1sn9Mg87JwEbrQby4Zqo3pump</t>
+  </si>
+  <si>
+    <t>Dupe</t>
+  </si>
+  <si>
+    <t>fRfKGCriduzDwSudCwpL7ySCEiboNuryhZDVJtr1a1C</t>
+  </si>
+  <si>
+    <t>LAUNCHCOIN</t>
+  </si>
+  <si>
+    <t>Ey59PH7Z4BFU4HjyKnyMdWt5GGN76KazTAwQihoUXRnk</t>
+  </si>
+  <si>
+    <t>MILK</t>
+  </si>
+  <si>
+    <t>0x7b4Bf9fEcCfF207eF2CB7101Ceb15b8516021AcD</t>
+  </si>
+  <si>
+    <t>HAEDAL</t>
+  </si>
+  <si>
+    <t>0x3D9bE0aC1001cd81c32464276D863d2FFdCa4967</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>CjqxraDuTMEcfhdqY8qEaMY43icdBrkt3EXciNVpump</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>9jUb38tuMqsCe328tM7kxFEm3wRpbo3MbXPJoFiTpump</t>
+  </si>
+  <si>
+    <t>Hodler</t>
+  </si>
+  <si>
+    <t>5i3WMss2Ldnkw3CnrBoGrkPiVwpAKuGoHULPdbaxpump</t>
+  </si>
+  <si>
+    <t>SQUID</t>
+  </si>
+  <si>
+    <t>HN8GGgzBFvuePPL3DGPg7uuq2dVgLApnNcW4pxY9a11o</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>0x783c3f003f172c6ac5ac700218a357d2d66ee2a2</t>
+  </si>
+  <si>
+    <t>FUCKCOIN</t>
+  </si>
+  <si>
+    <t>Cz75ZtjwgZmr5J1VDBRTm5ZybZvEFR5DEdb8hEy59pWq</t>
+  </si>
+  <si>
+    <t>gork</t>
+  </si>
+  <si>
+    <t>38PgzpJYu2HkiYvV8qePFakB8tuobPdGm2FFEn7Dpump</t>
+  </si>
+  <si>
+    <t>BETTY</t>
+  </si>
+  <si>
+    <t>6N7CrWe6qNt27G4sHXcjQMMy6btKRb7i9n4RYkKboop</t>
+  </si>
+  <si>
+    <t>BOOPA</t>
+  </si>
+  <si>
+    <t>JmMRbLcKgNCu17yHZDAn4strE5NjmWJ4pCeJ7s7boop</t>
+  </si>
+  <si>
+    <t>BIOS</t>
+  </si>
+  <si>
+    <t>0x73Cb479f2ccf77BAd90BcDA91e3987358437240A</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t>0x1C4CcA7C5DB003824208aDDA61Bd749e55F463a3</t>
+  </si>
+  <si>
+    <t>SATO</t>
+  </si>
+  <si>
+    <t>0x5A70bE406ce7471A44F0183B8D7091F4Ad751db5</t>
+  </si>
+  <si>
+    <t>POPE</t>
+  </si>
+  <si>
+    <t>9u8PP725K2GUf4p5bhKebrzHTGgvHp6KDeQPf7jc1F1W</t>
+  </si>
+  <si>
+    <t>URMOM</t>
+  </si>
+  <si>
+    <t>FkT2JJHDLL5eyBeeX7RjFevXSP5UDwRkiMCusg3ypump</t>
+  </si>
+  <si>
+    <t>DRA</t>
+  </si>
+  <si>
+    <t>8h3jsXbvBRPKGGRPhoYRHr7ca8qH3tBeaE2S93X1pump</t>
+  </si>
+  <si>
+    <t>amuseonx</t>
+  </si>
+  <si>
+    <t>2t7SanEtAjf35FERcfzzSTo8rajgV6YZWZYVVoRZpump</t>
+  </si>
+  <si>
+    <t>PORK</t>
+  </si>
+  <si>
+    <t>R6Res6qfWxgDGom5CpUEvxt7DNJu62bWvbgj7Vkboop</t>
+  </si>
+  <si>
+    <t>DONKEY</t>
+  </si>
+  <si>
+    <t>0xA49fA5E8106E2d6d6a69E78df9B6A20AaB9c4444</t>
+  </si>
+  <si>
+    <t>Jager</t>
+  </si>
+  <si>
+    <t>0x74836cC0E821A6bE18e407E6388E430B689C66e9</t>
+  </si>
+  <si>
+    <t>CHILLHOUSE</t>
+  </si>
+  <si>
+    <t>GkyPYa7NnCFbduLknCfBfP7p8564X1VZhwZYJ6CZpump</t>
+  </si>
+  <si>
+    <t>LLJEFFY</t>
+  </si>
+  <si>
+    <t>83mCRQJzvKMeQd9wJbZDUCTPgRbZMDoPdMSx5Sf1pump</t>
+  </si>
+  <si>
+    <t>MYX</t>
+  </si>
+  <si>
+    <t>0xd82544bf0dfe8385ef8fa34d67e6e4940cc63e16</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>FZRh6uAar3gEJb53ruHNjHibCPqiGHghfGiSRVeFpump</t>
+  </si>
+  <si>
+    <t>vampcoin2</t>
+  </si>
+  <si>
+    <t>9BqPvc9vPBdcVtez6UYiFEeqTSYqxypF4f1CmtaZpump</t>
+  </si>
+  <si>
+    <t>stickman</t>
+  </si>
+  <si>
+    <t>G1jydhghPMLBXRFPR3wyJ9HbpKPR3Rv7M8Yakfo5pump</t>
+  </si>
+  <si>
+    <t>gorilla</t>
+  </si>
+  <si>
+    <t>0xcf640fdf9b3d9e45cbd69fda91d7e22579c14444</t>
+  </si>
+  <si>
+    <t>76EDL5qNcte2ZH29quTaFzagXjWAEY83CATEjyA6pump</t>
+  </si>
+  <si>
+    <t>BTZ</t>
+  </si>
+  <si>
+    <t>0x1Ae85D523cab90558311c3d08fDB68fD28757516</t>
+  </si>
+  <si>
+    <t>RWAI</t>
+  </si>
+  <si>
+    <t>0x9a574ea719B5E69df7C783D15C9514A26F3FaF53</t>
+  </si>
+  <si>
+    <t>pitcoin</t>
+  </si>
+  <si>
+    <t>CL2bvqdTtYQqhwQC1Ad5GZ7cedW9RrbtUK4AZs9Bpump</t>
+  </si>
+  <si>
+    <t>SPLAT</t>
+  </si>
+  <si>
+    <t>4Uf883orBx89VQZiV4EoRpNqUWYN5ZuEvC4PCpQ9moon</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>HMRh9ksQTe2SXWLxaNTd2u8PTX9mcodUgzedDMaLbonk</t>
+  </si>
+  <si>
+    <t>SXT</t>
+  </si>
+  <si>
+    <t>0xA2c22252cDc8b7cDdEe1B0b2E242818509fCf7b8</t>
   </si>
 </sst>
 </file>
@@ -564,30 +810,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -595,7 +855,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -603,14 +863,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -618,7 +878,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -626,7 +886,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -634,7 +894,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -642,7 +902,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -650,14 +910,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -665,7 +925,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -673,7 +933,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -681,14 +941,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -696,42 +956,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1062,28 +1322,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,181 +1343,217 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1527,28 +1814,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="12.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1557,1606 +1844,4582 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3">
         <v>45751</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3">
         <v>45751</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3">
         <v>45751</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3">
         <v>45751</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
         <v>45751</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3">
         <v>45751</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3">
         <v>45751</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3">
         <v>45751</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
         <v>45751</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
         <v>45751</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
         <v>45751</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>4444</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
         <v>45751</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
         <v>45751</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
         <v>45751</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
         <v>45751</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
         <v>45752</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
         <v>45752</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
         <v>45752</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
         <v>45752</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
         <v>45752</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
         <v>45752</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
         <v>45753</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
         <v>45753</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
         <v>45755</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
         <v>45756</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
         <v>45756</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
         <v>45756</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
         <v>45757</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3">
         <v>45757</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3">
         <v>45757</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3">
         <v>45757</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="3">
         <v>45759</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="3">
         <v>45760</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="3">
         <v>45760</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="3">
         <v>45761</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2">
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="3">
         <v>45761</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="3">
         <v>45761</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2">
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="3">
         <v>45762</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="3">
         <v>45762</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="3">
         <v>45762</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="3">
         <v>45762</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2">
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="3">
         <v>45763</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="3">
         <v>45763</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2">
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="3">
         <v>45765</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2">
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="3">
         <v>45765</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="3">
         <v>45765</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2">
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="3">
         <v>45765</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="3">
         <v>45765</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="C49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2">
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="3">
         <v>45765</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2">
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="3">
         <v>45766</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="3">
         <v>45766</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="3">
         <v>45766</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2">
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="3">
         <v>45766</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2">
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="3">
         <v>45766</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2">
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="3">
         <v>45767</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2">
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="3">
         <v>45768</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2">
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="3">
         <v>45768</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2">
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="3">
         <v>45768</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2">
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="3">
         <v>45768</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2">
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="3">
         <v>45769</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2">
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="3">
         <v>45769</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="3">
         <v>45769</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="2">
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="3">
         <v>45770</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="2">
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="3">
         <v>45770</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="C65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="2">
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="3">
         <v>45770</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="D66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="2">
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="3">
         <v>45770</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="2">
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="3">
         <v>45770</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="C68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2">
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="3">
         <v>45770</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="2">
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="3">
         <v>45771</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="2">
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="3">
         <v>45772</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="2">
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="3">
         <v>45772</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="2">
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="3">
         <v>45772</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="2">
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="3">
         <v>45772</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="2">
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="3">
         <v>45772</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="C75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="2">
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="3">
         <v>45773</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="2">
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="3">
         <v>45773</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="2">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="3">
         <v>45773</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="C78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="2">
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="3">
         <v>45773</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="C79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="2">
-        <v>45773</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="3">
+        <v>45774</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="C80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="2">
-        <v>45773</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="3">
+        <v>45774</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="C81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="3">
+        <v>45775</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="3">
+        <v>45775</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="3">
+        <v>45780</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="3">
+        <v>45780</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="3">
+        <v>45781</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="3">
+        <v>45781</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="3">
+        <v>45782</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="3">
+        <v>45782</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="3">
+        <v>45782</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="3">
+        <v>45783</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="3">
+        <v>45783</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="3">
+        <v>45783</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="3">
+        <v>45784</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="3">
+        <v>45784</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="3">
+        <v>45784</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="3">
+        <v>45784</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="3">
+        <v>45784</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="3">
+        <v>45784</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="3">
+        <v>45784</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="3">
+        <v>45785</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="3">
+        <v>45785</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="3">
+        <v>45785</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="3">
+        <v>45785</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="10"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="10"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="10"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="10"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="10"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="10"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="10"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="10"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="10"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="10"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="10"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="10"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="10"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="10"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="10"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="10"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="10"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="10"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="10"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="10"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="10"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="10"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="10"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="10"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="10"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="10"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="10"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="10"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="10"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="10"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="10"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="10"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="10"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="10"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="10"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="10"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="10"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="10"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="10"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="10"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="10"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="10"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="10"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="10"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="10"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="10"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="10"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="10"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="10"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="10"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="10"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="10"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="10"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="10"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="10"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="10"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="10"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="10"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="10"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="10"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="10"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="10"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="10"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="10"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="10"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="10"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="10"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="10"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="10"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="10"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="10"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="10"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="10"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" s="10"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" s="10"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" s="10"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="10"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="10"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="10"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="10"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="10"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="10"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="10"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="10"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="10"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="10"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="10"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="10"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="10"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" s="10"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" s="10"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="10"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" s="10"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" s="10"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" s="10"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" s="10"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" s="10"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220" s="10"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="A221" s="10"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="A222" s="10"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="A223" s="10"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="A224" s="10"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3174,7 +6437,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3191,7 +6454,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
